--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_76.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,690 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1107692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:06.640000', '0:00:13.600000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.64, 14.0)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A'], ['D', 'A', 'A/b7'], ['D', 'E', 'D']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F'], ['Bb', 'F', 'F'], ['Bb:maj', 'C', 'Bb/5']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(89.915646, 97.020952), (26.08399, 30.414512), (148.441541, 156.533695)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693), (20.130022, 25.095075), (29.986893, 33.048777)]</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:06.700000', '0:00:10.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.4, 12.5)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[('0:00:11.500000', '0:00:37.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:09.480000', '0:00:25.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.859274, 49.758684)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(23.563446, 27.290249)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.26, 12.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
